--- a/Multi-Cell Near East Grass Husk Identification Survey copy.xlsx
+++ b/Multi-Cell Near East Grass Husk Identification Survey copy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,23 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -253,6 +269,9 @@
     <t>I based this on wave pattern but would have liked to be able to zoom in ad out to see the papilla</t>
   </si>
   <si>
+    <t>East Africa and South Asia</t>
+  </si>
+  <si>
     <t>I prioritize the wave pattern of elongate almost clavate, then the length-to-width ratio of the elongates and the wavy short margins combined with the ovoid papillae</t>
   </si>
   <si>
@@ -758,9 +777,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wave pattern and the hyper-dendritic nature of the phytoliths, long spikes. </t>
-  </si>
-  <si>
-    <t>East Africa and South Asia</t>
   </si>
 </sst>
 </file>
@@ -770,7 +786,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1140,20 +1156,20 @@
       <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" customWidth="1"/>
-    <col min="22" max="22" width="20.5" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" customWidth="1"/>
     <col min="30" max="30" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:148" s="2" customFormat="1" ht="14.1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:148" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:148" s="2" customFormat="1" ht="14.1">
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1874,7 +1890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:148">
       <c r="A3" s="3">
         <v>114698657503</v>
       </c>
@@ -2257,7 +2273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:148">
       <c r="A4" s="3">
         <v>114608398619</v>
       </c>
@@ -2535,7 +2551,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:148">
       <c r="A5" s="3">
         <v>114593798403</v>
       </c>
@@ -2546,7 +2562,7 @@
         <v>45418.506064814814</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -2564,7 +2580,7 @@
         <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
@@ -2582,7 +2598,7 @@
         <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s">
         <v>54</v>
@@ -2600,7 +2616,7 @@
         <v>38</v>
       </c>
       <c r="AB5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s">
         <v>43</v>
@@ -2618,7 +2634,7 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s">
         <v>43</v>
@@ -2633,7 +2649,7 @@
         <v>37</v>
       </c>
       <c r="AR5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AT5" t="s">
         <v>54</v>
@@ -2651,7 +2667,7 @@
         <v>38</v>
       </c>
       <c r="AZ5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BB5" t="s">
         <v>43</v>
@@ -2669,7 +2685,7 @@
         <v>37</v>
       </c>
       <c r="BH5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BJ5" t="s">
         <v>43</v>
@@ -2687,7 +2703,7 @@
         <v>38</v>
       </c>
       <c r="BP5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BR5" t="s">
         <v>36</v>
@@ -2705,7 +2721,7 @@
         <v>38</v>
       </c>
       <c r="BX5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BZ5" t="s">
         <v>36</v>
@@ -2723,7 +2739,7 @@
         <v>38</v>
       </c>
       <c r="CF5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CH5" t="s">
         <v>36</v>
@@ -2741,7 +2757,7 @@
         <v>38</v>
       </c>
       <c r="CN5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CP5" t="s">
         <v>36</v>
@@ -2759,7 +2775,7 @@
         <v>38</v>
       </c>
       <c r="CV5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CX5" t="s">
         <v>49</v>
@@ -2777,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="DD5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="DF5" t="s">
         <v>49</v>
@@ -2795,7 +2811,7 @@
         <v>38</v>
       </c>
       <c r="DL5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DN5" t="s">
         <v>43</v>
@@ -2813,7 +2829,7 @@
         <v>38</v>
       </c>
       <c r="DT5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="DV5" t="s">
         <v>49</v>
@@ -2831,7 +2847,7 @@
         <v>38</v>
       </c>
       <c r="EB5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="ED5" t="s">
         <v>36</v>
@@ -2849,7 +2865,7 @@
         <v>37</v>
       </c>
       <c r="EJ5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="EL5" t="s">
         <v>49</v>
@@ -2867,10 +2883,10 @@
         <v>38</v>
       </c>
       <c r="ER5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:148">
       <c r="A6" s="3">
         <v>114591055078</v>
       </c>
@@ -2881,7 +2897,7 @@
         <v>45414.101863425924</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -2899,7 +2915,7 @@
         <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
         <v>49</v>
@@ -2917,7 +2933,7 @@
         <v>38</v>
       </c>
       <c r="T6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V6" t="s">
         <v>36</v>
@@ -2935,7 +2951,7 @@
         <v>38</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD6" t="s">
         <v>49</v>
@@ -2953,7 +2969,7 @@
         <v>37</v>
       </c>
       <c r="AJ6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="s">
         <v>49</v>
@@ -2971,7 +2987,7 @@
         <v>38</v>
       </c>
       <c r="AR6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="s">
         <v>49</v>
@@ -2989,7 +3005,7 @@
         <v>38</v>
       </c>
       <c r="AZ6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BB6" t="s">
         <v>36</v>
@@ -3007,7 +3023,7 @@
         <v>38</v>
       </c>
       <c r="BH6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BJ6" t="s">
         <v>36</v>
@@ -3025,7 +3041,7 @@
         <v>38</v>
       </c>
       <c r="BP6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BR6" t="s">
         <v>36</v>
@@ -3043,7 +3059,7 @@
         <v>38</v>
       </c>
       <c r="BX6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BZ6" t="s">
         <v>36</v>
@@ -3061,7 +3077,7 @@
         <v>38</v>
       </c>
       <c r="CF6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CH6" t="s">
         <v>36</v>
@@ -3079,7 +3095,7 @@
         <v>38</v>
       </c>
       <c r="CN6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="CP6" t="s">
         <v>36</v>
@@ -3097,7 +3113,7 @@
         <v>38</v>
       </c>
       <c r="CV6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="CX6" t="s">
         <v>54</v>
@@ -3115,7 +3131,7 @@
         <v>38</v>
       </c>
       <c r="DD6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DF6" t="s">
         <v>54</v>
@@ -3133,7 +3149,7 @@
         <v>38</v>
       </c>
       <c r="DL6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DN6" t="s">
         <v>36</v>
@@ -3151,7 +3167,7 @@
         <v>38</v>
       </c>
       <c r="DT6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DV6" t="s">
         <v>49</v>
@@ -3169,7 +3185,7 @@
         <v>38</v>
       </c>
       <c r="EB6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="ED6" t="s">
         <v>54</v>
@@ -3187,7 +3203,7 @@
         <v>38</v>
       </c>
       <c r="EJ6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="EL6" t="s">
         <v>43</v>
@@ -3205,10 +3221,10 @@
         <v>38</v>
       </c>
       <c r="ER6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:148">
       <c r="A7" s="3">
         <v>114589291701</v>
       </c>
@@ -3219,7 +3235,7 @@
         <v>45412.380601851852</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -3237,7 +3253,7 @@
         <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s">
         <v>29</v>
@@ -3258,7 +3274,7 @@
         <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U7" t="s">
         <v>29</v>
@@ -3279,7 +3295,7 @@
         <v>38</v>
       </c>
       <c r="AB7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC7" t="s">
         <v>29</v>
@@ -3297,7 +3313,7 @@
         <v>37</v>
       </c>
       <c r="AJ7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s">
         <v>43</v>
@@ -3315,7 +3331,7 @@
         <v>37</v>
       </c>
       <c r="AR7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS7" t="s">
         <v>29</v>
@@ -3333,7 +3349,7 @@
         <v>37</v>
       </c>
       <c r="AZ7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BA7" t="s">
         <v>29</v>
@@ -3351,7 +3367,7 @@
         <v>37</v>
       </c>
       <c r="BH7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BI7" t="s">
         <v>29</v>
@@ -3372,7 +3388,7 @@
         <v>38</v>
       </c>
       <c r="BP7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BQ7" t="s">
         <v>29</v>
@@ -3393,7 +3409,7 @@
         <v>38</v>
       </c>
       <c r="BX7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BY7" t="s">
         <v>29</v>
@@ -3414,7 +3430,7 @@
         <v>38</v>
       </c>
       <c r="CF7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="CG7" t="s">
         <v>29</v>
@@ -3432,7 +3448,7 @@
         <v>37</v>
       </c>
       <c r="CN7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CO7" t="s">
         <v>29</v>
@@ -3450,7 +3466,7 @@
         <v>37</v>
       </c>
       <c r="CV7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CW7" t="s">
         <v>29</v>
@@ -3471,7 +3487,7 @@
         <v>38</v>
       </c>
       <c r="DD7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DE7" t="s">
         <v>29</v>
@@ -3486,7 +3502,7 @@
         <v>37</v>
       </c>
       <c r="DL7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="DM7" t="s">
         <v>29</v>
@@ -3507,7 +3523,7 @@
         <v>38</v>
       </c>
       <c r="DT7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="DU7" t="s">
         <v>29</v>
@@ -3528,7 +3544,7 @@
         <v>38</v>
       </c>
       <c r="EB7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="EC7" t="s">
         <v>29</v>
@@ -3549,7 +3565,7 @@
         <v>38</v>
       </c>
       <c r="EJ7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="EK7" t="s">
         <v>29</v>
@@ -3564,10 +3580,10 @@
         <v>37</v>
       </c>
       <c r="ER7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:148">
       <c r="A8" s="3">
         <v>114587903811</v>
       </c>
@@ -3599,7 +3615,7 @@
         <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
@@ -3620,7 +3636,7 @@
         <v>38</v>
       </c>
       <c r="T8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U8" t="s">
         <v>29</v>
@@ -3641,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC8" t="s">
         <v>29</v>
@@ -3662,7 +3678,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK8" t="s">
         <v>29</v>
@@ -3683,7 +3699,7 @@
         <v>38</v>
       </c>
       <c r="AR8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AS8" t="s">
         <v>29</v>
@@ -3704,7 +3720,7 @@
         <v>37</v>
       </c>
       <c r="AZ8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BA8" t="s">
         <v>29</v>
@@ -3725,7 +3741,7 @@
         <v>38</v>
       </c>
       <c r="BH8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI8" t="s">
         <v>29</v>
@@ -3746,7 +3762,7 @@
         <v>38</v>
       </c>
       <c r="BP8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BQ8" t="s">
         <v>29</v>
@@ -3767,7 +3783,7 @@
         <v>38</v>
       </c>
       <c r="BX8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BY8" t="s">
         <v>29</v>
@@ -3788,7 +3804,7 @@
         <v>37</v>
       </c>
       <c r="CF8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CG8" t="s">
         <v>29</v>
@@ -3809,7 +3825,7 @@
         <v>37</v>
       </c>
       <c r="CN8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CO8" t="s">
         <v>29</v>
@@ -3830,7 +3846,7 @@
         <v>37</v>
       </c>
       <c r="CV8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CW8" t="s">
         <v>29</v>
@@ -3851,7 +3867,7 @@
         <v>38</v>
       </c>
       <c r="DD8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DE8" t="s">
         <v>29</v>
@@ -3872,7 +3888,7 @@
         <v>38</v>
       </c>
       <c r="DL8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DN8" t="s">
         <v>49</v>
@@ -3890,7 +3906,7 @@
         <v>38</v>
       </c>
       <c r="DT8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DV8" t="s">
         <v>49</v>
@@ -3908,7 +3924,7 @@
         <v>38</v>
       </c>
       <c r="EB8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="EC8" t="s">
         <v>29</v>
@@ -3929,7 +3945,7 @@
         <v>38</v>
       </c>
       <c r="EJ8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EK8" t="s">
         <v>29</v>
@@ -3950,10 +3966,10 @@
         <v>38</v>
       </c>
       <c r="ER8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:148">
       <c r="A9" s="3">
         <v>114586405069</v>
       </c>
@@ -3964,7 +3980,7 @@
         <v>45407.945370370369</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -3985,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
@@ -4003,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U9" t="s">
         <v>29</v>
@@ -4024,7 +4040,7 @@
         <v>38</v>
       </c>
       <c r="AB9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD9" t="s">
         <v>36</v>
@@ -4042,7 +4058,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL9" t="s">
         <v>43</v>
@@ -4060,7 +4076,7 @@
         <v>38</v>
       </c>
       <c r="AR9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AT9" t="s">
         <v>43</v>
@@ -4078,7 +4094,7 @@
         <v>38</v>
       </c>
       <c r="AZ9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BB9" t="s">
         <v>36</v>
@@ -4096,7 +4112,7 @@
         <v>38</v>
       </c>
       <c r="BH9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BJ9" t="s">
         <v>49</v>
@@ -4114,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="BP9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BR9" t="s">
         <v>36</v>
@@ -4132,7 +4148,7 @@
         <v>38</v>
       </c>
       <c r="BX9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BZ9" t="s">
         <v>36</v>
@@ -4150,7 +4166,7 @@
         <v>38</v>
       </c>
       <c r="CF9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CH9" t="s">
         <v>54</v>
@@ -4168,7 +4184,7 @@
         <v>38</v>
       </c>
       <c r="CN9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CP9" t="s">
         <v>49</v>
@@ -4186,7 +4202,7 @@
         <v>38</v>
       </c>
       <c r="CV9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CX9" t="s">
         <v>49</v>
@@ -4204,7 +4220,7 @@
         <v>38</v>
       </c>
       <c r="DD9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DF9" t="s">
         <v>49</v>
@@ -4222,7 +4238,7 @@
         <v>38</v>
       </c>
       <c r="DL9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DN9" t="s">
         <v>49</v>
@@ -4240,7 +4256,7 @@
         <v>38</v>
       </c>
       <c r="DT9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DV9" t="s">
         <v>49</v>
@@ -4258,7 +4274,7 @@
         <v>38</v>
       </c>
       <c r="EB9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="ED9" t="s">
         <v>49</v>
@@ -4276,7 +4292,7 @@
         <v>38</v>
       </c>
       <c r="EJ9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EL9" t="s">
         <v>49</v>
@@ -4294,10 +4310,10 @@
         <v>38</v>
       </c>
       <c r="ER9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:148">
       <c r="A10" s="3">
         <v>114584712002</v>
       </c>
@@ -4308,7 +4324,7 @@
         <v>45406.268310185187</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -4329,7 +4345,7 @@
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -4350,7 +4366,7 @@
         <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U10" t="s">
         <v>29</v>
@@ -4371,7 +4387,7 @@
         <v>38</v>
       </c>
       <c r="AB10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC10" t="s">
         <v>29</v>
@@ -4392,7 +4408,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK10" t="s">
         <v>29</v>
@@ -4413,7 +4429,7 @@
         <v>38</v>
       </c>
       <c r="AR10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AS10" t="s">
         <v>29</v>
@@ -4434,7 +4450,7 @@
         <v>38</v>
       </c>
       <c r="AZ10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BA10" t="s">
         <v>29</v>
@@ -4455,7 +4471,7 @@
         <v>38</v>
       </c>
       <c r="BH10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BI10" t="s">
         <v>29</v>
@@ -4476,7 +4492,7 @@
         <v>38</v>
       </c>
       <c r="BP10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BQ10" t="s">
         <v>29</v>
@@ -4497,7 +4513,7 @@
         <v>38</v>
       </c>
       <c r="BX10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BY10" t="s">
         <v>29</v>
@@ -4518,7 +4534,7 @@
         <v>38</v>
       </c>
       <c r="CF10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CG10" t="s">
         <v>29</v>
@@ -4539,7 +4555,7 @@
         <v>38</v>
       </c>
       <c r="CN10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CP10" t="s">
         <v>36</v>
@@ -4557,7 +4573,7 @@
         <v>38</v>
       </c>
       <c r="CV10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CW10" t="s">
         <v>29</v>
@@ -4578,7 +4594,7 @@
         <v>38</v>
       </c>
       <c r="DD10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="DE10" t="s">
         <v>29</v>
@@ -4599,7 +4615,7 @@
         <v>38</v>
       </c>
       <c r="DL10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="DM10" t="s">
         <v>29</v>
@@ -4620,7 +4636,7 @@
         <v>38</v>
       </c>
       <c r="DT10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DU10" t="s">
         <v>29</v>
@@ -4641,7 +4657,7 @@
         <v>38</v>
       </c>
       <c r="EB10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EC10" t="s">
         <v>29</v>
@@ -4662,7 +4678,7 @@
         <v>38</v>
       </c>
       <c r="EJ10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EK10" t="s">
         <v>29</v>
@@ -4683,10 +4699,10 @@
         <v>38</v>
       </c>
       <c r="ER10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:148">
       <c r="A11" s="3">
         <v>114578272638</v>
       </c>
@@ -4712,7 +4728,7 @@
         <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD11" t="s">
         <v>54</v>
@@ -4730,7 +4746,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL11" t="s">
         <v>54</v>
@@ -4748,7 +4764,7 @@
         <v>37</v>
       </c>
       <c r="AR11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AT11" t="s">
         <v>54</v>
@@ -4766,7 +4782,7 @@
         <v>38</v>
       </c>
       <c r="AZ11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BZ11" t="s">
         <v>54</v>
@@ -4784,7 +4800,7 @@
         <v>38</v>
       </c>
       <c r="CF11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CH11" t="s">
         <v>54</v>
@@ -4802,7 +4818,7 @@
         <v>37</v>
       </c>
       <c r="CN11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CX11" t="s">
         <v>43</v>
@@ -4820,7 +4836,7 @@
         <v>38</v>
       </c>
       <c r="DD11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DN11" t="s">
         <v>43</v>
@@ -4832,7 +4848,7 @@
         <v>37</v>
       </c>
       <c r="DT11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DV11" t="s">
         <v>43</v>
@@ -4850,7 +4866,7 @@
         <v>38</v>
       </c>
       <c r="EB11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="ED11" t="s">
         <v>43</v>
@@ -4865,10 +4881,10 @@
         <v>37</v>
       </c>
       <c r="EJ11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:148">
       <c r="A12" s="3">
         <v>114577309146</v>
       </c>
@@ -4879,7 +4895,7 @@
         <v>45397.250451388885</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -4897,7 +4913,7 @@
         <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N12" t="s">
         <v>54</v>
@@ -4915,7 +4931,7 @@
         <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V12" t="s">
         <v>54</v>
@@ -4933,7 +4949,7 @@
         <v>38</v>
       </c>
       <c r="AB12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AD12" t="s">
         <v>49</v>
@@ -4951,7 +4967,7 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL12" t="s">
         <v>43</v>
@@ -4966,7 +4982,7 @@
         <v>37</v>
       </c>
       <c r="AR12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AT12" t="s">
         <v>49</v>
@@ -4984,7 +5000,7 @@
         <v>37</v>
       </c>
       <c r="AZ12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BB12" t="s">
         <v>36</v>
@@ -5002,7 +5018,7 @@
         <v>38</v>
       </c>
       <c r="BH12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BJ12" t="s">
         <v>43</v>
@@ -5020,7 +5036,7 @@
         <v>38</v>
       </c>
       <c r="BP12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BR12" t="s">
         <v>36</v>
@@ -5038,7 +5054,7 @@
         <v>38</v>
       </c>
       <c r="BX12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BZ12" t="s">
         <v>49</v>
@@ -5056,7 +5072,7 @@
         <v>38</v>
       </c>
       <c r="CF12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CH12" t="s">
         <v>36</v>
@@ -5074,7 +5090,7 @@
         <v>37</v>
       </c>
       <c r="CN12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CP12" t="s">
         <v>36</v>
@@ -5089,7 +5105,7 @@
         <v>37</v>
       </c>
       <c r="CV12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CX12" t="s">
         <v>49</v>
@@ -5107,7 +5123,7 @@
         <v>37</v>
       </c>
       <c r="DD12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DF12" t="s">
         <v>43</v>
@@ -5125,7 +5141,7 @@
         <v>38</v>
       </c>
       <c r="DL12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="DN12" t="s">
         <v>43</v>
@@ -5143,7 +5159,7 @@
         <v>38</v>
       </c>
       <c r="DT12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="DV12" t="s">
         <v>43</v>
@@ -5161,7 +5177,7 @@
         <v>38</v>
       </c>
       <c r="EB12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="ED12" t="s">
         <v>43</v>
@@ -5179,7 +5195,7 @@
         <v>38</v>
       </c>
       <c r="EJ12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="EL12" t="s">
         <v>49</v>
@@ -5197,10 +5213,10 @@
         <v>38</v>
       </c>
       <c r="ER12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:148">
       <c r="A13" s="3">
         <v>114576035342</v>
       </c>
@@ -5229,7 +5245,7 @@
         <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
@@ -5247,7 +5263,7 @@
         <v>37</v>
       </c>
       <c r="T13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V13" t="s">
         <v>36</v>
@@ -5265,7 +5281,7 @@
         <v>38</v>
       </c>
       <c r="AB13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AD13" t="s">
         <v>43</v>
@@ -5283,7 +5299,7 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL13" t="s">
         <v>43</v>
@@ -5301,7 +5317,7 @@
         <v>37</v>
       </c>
       <c r="AR13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AT13" t="s">
         <v>43</v>
@@ -5319,7 +5335,7 @@
         <v>38</v>
       </c>
       <c r="AZ13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BB13" t="s">
         <v>43</v>
@@ -5337,7 +5353,7 @@
         <v>38</v>
       </c>
       <c r="BH13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BJ13" t="s">
         <v>43</v>
@@ -5355,7 +5371,7 @@
         <v>38</v>
       </c>
       <c r="BP13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BR13" t="s">
         <v>43</v>
@@ -5373,7 +5389,7 @@
         <v>37</v>
       </c>
       <c r="BX13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BZ13" t="s">
         <v>36</v>
@@ -5391,7 +5407,7 @@
         <v>37</v>
       </c>
       <c r="CF13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CH13" t="s">
         <v>36</v>
@@ -5409,7 +5425,7 @@
         <v>37</v>
       </c>
       <c r="CN13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CO13" t="s">
         <v>29</v>
@@ -5427,7 +5443,7 @@
         <v>38</v>
       </c>
       <c r="CV13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CX13" t="s">
         <v>36</v>
@@ -5445,7 +5461,7 @@
         <v>37</v>
       </c>
       <c r="DD13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="DF13" t="s">
         <v>49</v>
@@ -5463,7 +5479,7 @@
         <v>38</v>
       </c>
       <c r="DL13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="DN13" t="s">
         <v>54</v>
@@ -5481,7 +5497,7 @@
         <v>38</v>
       </c>
       <c r="DT13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DV13" t="s">
         <v>54</v>
@@ -5499,7 +5515,7 @@
         <v>38</v>
       </c>
       <c r="EB13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="EC13" t="s">
         <v>29</v>
@@ -5520,7 +5536,7 @@
         <v>38</v>
       </c>
       <c r="EJ13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="EL13" t="s">
         <v>49</v>
@@ -5538,10 +5554,10 @@
         <v>37</v>
       </c>
       <c r="ER13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:148">
       <c r="A14" s="3">
         <v>114573876642</v>
       </c>
@@ -5552,7 +5568,7 @@
         <v>45392.316979166666</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
         <v>49</v>
@@ -5570,7 +5586,7 @@
         <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N14" t="s">
         <v>49</v>
@@ -5588,7 +5604,7 @@
         <v>38</v>
       </c>
       <c r="T14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V14" t="s">
         <v>49</v>
@@ -5606,7 +5622,7 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AD14" t="s">
         <v>49</v>
@@ -5624,7 +5640,7 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL14" t="s">
         <v>43</v>
@@ -5642,7 +5658,7 @@
         <v>38</v>
       </c>
       <c r="AR14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AT14" t="s">
         <v>43</v>
@@ -5660,7 +5676,7 @@
         <v>38</v>
       </c>
       <c r="AZ14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BB14" t="s">
         <v>36</v>
@@ -5678,7 +5694,7 @@
         <v>38</v>
       </c>
       <c r="BH14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BJ14" t="s">
         <v>49</v>
@@ -5696,7 +5712,7 @@
         <v>38</v>
       </c>
       <c r="BP14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BR14" t="s">
         <v>36</v>
@@ -5714,7 +5730,7 @@
         <v>38</v>
       </c>
       <c r="BX14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BZ14" t="s">
         <v>49</v>
@@ -5732,7 +5748,7 @@
         <v>38</v>
       </c>
       <c r="CF14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CH14" t="s">
         <v>36</v>
@@ -5750,7 +5766,7 @@
         <v>38</v>
       </c>
       <c r="CN14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CP14" t="s">
         <v>36</v>
@@ -5768,7 +5784,7 @@
         <v>38</v>
       </c>
       <c r="CV14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CX14" t="s">
         <v>49</v>
@@ -5786,7 +5802,7 @@
         <v>38</v>
       </c>
       <c r="DD14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="DF14" t="s">
         <v>43</v>
@@ -5804,7 +5820,7 @@
         <v>38</v>
       </c>
       <c r="DL14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="DN14" t="s">
         <v>54</v>
@@ -5822,7 +5838,7 @@
         <v>38</v>
       </c>
       <c r="DT14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DV14" t="s">
         <v>49</v>
@@ -5840,7 +5856,7 @@
         <v>38</v>
       </c>
       <c r="EB14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="ED14" t="s">
         <v>36</v>
@@ -5858,7 +5874,7 @@
         <v>38</v>
       </c>
       <c r="EJ14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="EL14" t="s">
         <v>49</v>
@@ -5873,7 +5889,7 @@
         <v>38</v>
       </c>
       <c r="ER14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
